--- a/TestPlan/lojaebac.xlsx
+++ b/TestPlan/lojaebac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\teste-qa-fadesp\TestPlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F110A4A2-489E-4257-80C8-58D7ADECF933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E616F3A1-CE4E-4AC1-B871-91D1C6038DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Case</t>
   </si>
@@ -167,6 +167,21 @@
   </si>
   <si>
     <t>Usuário foi redirecionado para a área de usuário da plataforma</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Usuário já registrado com o mesmo e-mail.</t>
+  </si>
+  <si>
+    <t>1. Acesse a página de login/registro.
+2. Insira informações email já registrado
+3. Insira a senha 
+3. Clique no botão de registro.</t>
+  </si>
+  <si>
+    <t>O sistema deve exibir uma mensagem de erro indicando que o e-mail já está em uso.</t>
+  </si>
+  <si>
+    <t>Erro relatado "Erro: Uma conta já está registrada com seu endereço de e-mail. Faça login."</t>
   </si>
 </sst>
 </file>
@@ -255,7 +270,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -273,6 +288,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -281,9 +302,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -637,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,7 +689,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="105" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -688,7 +706,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
@@ -706,7 +724,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
@@ -724,7 +742,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
@@ -739,14 +757,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -754,25 +772,41 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>30</v>
       </c>
     </row>
+    <row r="8" spans="1:6" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestPlan/lojaebac.xlsx
+++ b/TestPlan/lojaebac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\teste-qa-fadesp\TestPlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E616F3A1-CE4E-4AC1-B871-91D1C6038DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84E3CE6-F108-46BC-907F-9CDC317FF0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Case</t>
   </si>
@@ -75,15 +75,6 @@
   </si>
   <si>
     <t>Expected results</t>
-  </si>
-  <si>
-    <t>1. Click on login button
-2. Fill in your a correct email.
-3. Fill in your correct password
-4. click on submit button</t>
-  </si>
-  <si>
-    <t>Login sucessful</t>
   </si>
   <si>
     <t>invalid email</t>
@@ -182,6 +173,35 @@
   </si>
   <si>
     <t>Erro relatado "Erro: Uma conta já está registrada com seu endereço de e-mail. Faça login."</t>
+  </si>
+  <si>
+    <t>Login realizado com sucesso.</t>
+  </si>
+  <si>
+    <t>1. Click no botão de login
+2. Preencha o email
+3. Preencha com a senha correta
+4. click no botão de submissão</t>
+  </si>
+  <si>
+    <t>Compra de produto</t>
+  </si>
+  <si>
+    <t>Adicionar produto ao carinho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Clicar no produto escolhido
+2. Escolha do tamanho (caso o produto tenha essa opção)
+3. Escolha da cor do produto (caso o produto tenh essa opção)
+4. Escolha da quantidade do produto
+5.Clicar em comprar.
+</t>
+  </si>
+  <si>
+    <t>Produto deve ser adicionado ao carinho.</t>
+  </si>
+  <si>
+    <t>produto adicionado ao carinho com a seguinte mensagem " 'produto' foi adicionado no seu carrinho."</t>
   </si>
 </sst>
 </file>
@@ -212,14 +232,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,11 +250,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -257,10 +273,10 @@
     <border>
       <left/>
       <right/>
-      <top style="thick">
-        <color theme="4"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -268,9 +284,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -288,27 +304,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bom" xfId="2" builtinId="26"/>
-    <cellStyle name="Neutro" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -655,17 +665,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
     <col min="2" max="2" width="39.44140625" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="34.44140625" customWidth="1"/>
     <col min="5" max="5" width="37" customWidth="1"/>
     <col min="6" max="6" width="38.33203125" customWidth="1"/>
@@ -688,119 +698,136 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="105" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:6" ht="105" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="115.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8"/>
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F3" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
+    <row r="4" spans="1:6" ht="79.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8"/>
       <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="F4" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
+    <row r="5" spans="1:6" ht="77.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8"/>
       <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="72" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8"/>
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="3" t="s">
+    <row r="7" spans="1:6" ht="73.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="8" t="s">
+    <row r="8" spans="1:6" ht="79.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9"/>
+      <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="D8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>34</v>
+    <row r="9" spans="1:6" ht="105" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
